--- a/biology/Médecine/Lakshmi_Tatma/Lakshmi_Tatma.xlsx
+++ b/biology/Médecine/Lakshmi_Tatma/Lakshmi_Tatma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lakshmi Tatma (hindi : लक्ष्मी तात्मा Lakṣmī Tātmā) est une Indienne née le 31 octobre 2005 dans un village du district d'Araria, dans le Bihar, avec quatre bras et quatre jambes[1],[2]. Elle avait un jumeau parasite ou ischiopagus, qui était sans tête à cause d'une atrophie et un sous-développement de la poitrine pendant la grossesse de la mère. Le résultat ressemblait donc à un enfant avec quatre bras et quatre jambes. Le 6 novembre 2007, elle a été séparée de son jumeau à l'issue d'une opération chirurgicale d'une durée de 27 heures.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lakshmi Tatma (hindi : लक्ष्मी तात्मा Lakṣmī Tātmā) est une Indienne née le 31 octobre 2005 dans un village du district d'Araria, dans le Bihar, avec quatre bras et quatre jambes,. Elle avait un jumeau parasite ou ischiopagus, qui était sans tête à cause d'une atrophie et un sous-développement de la poitrine pendant la grossesse de la mère. Le résultat ressemblait donc à un enfant avec quatre bras et quatre jambes. Le 6 novembre 2007, elle a été séparée de son jumeau à l'issue d'une opération chirurgicale d'une durée de 27 heures.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Shambhu, et sa mère, Poonam étaient des ouvriers qui gagnaient moins de 40 roupies par jour, et n'avaient en aucun cas les moyens de payer la chirurgie pour leur fille. Celle-ci a été nommée Lakshmi, la déesse Hindou de la richesse aux quatre bras. Elle était parfois un objet de vénération comme la réincarnation de la déesse Lakshmi ; quand elle eut deux ans, elle était connue partout en Inde. À tel point qu'un souk a offert au couple une somme d'argent pour acheter Lakshmi comme un objet d'attraction, ce qui les a forcés à se cacher. Au moment où elle a été trouvée par Dr Sharan Patil, la fillette souffrait d'escarres au niveau du cou du jumeau parasite et de fièvres continuelles.
 Lakshmi est la deuxième enfant du couple. Son frère aîné s'appelle Mitelesh.
@@ -544,11 +558,13 @@
           <t>Chirurgie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant l'opération, avant qu'elle soit traitée pour ses ulcères et de la fièvre, elle était encore parfois un objet de culte comme une incarnation de la déesse Lakshmi. Elle pouvait se déplacer en rampant, bien qu'entravée par le jumeau parasite.
 Elle a été opérée par Dr Sharan Patil et trente autres médecins, dont le chef anesthésiste Dr Yohannan John à l'hôpital Sparsh de Bangalore.
-Les pelvis des deux jumelles formaient un seul anneau joint. Chaque jumelle avait un rein qui fonctionnait[3]. Lakshmi avait un second rein qui était nécrotique et un pied affecté d'un pied-bot.
+Les pelvis des deux jumelles formaient un seul anneau joint. Chaque jumelle avait un rein qui fonctionnait. Lakshmi avait un second rein qui était nécrotique et un pied affecté d'un pied-bot.
 Plus de trente chirurgiens se sont relayés pour l'opération, d'une durée totale de 27 heures. Les médecins donnaient à Lakshmi des chances de survie de 75-80 %.
 Les étapes de l'opération ont été :
 (8 heures) Retirer les organes abdominaux du parasite.
